--- a/TestDataMappingSheetNew.xlsx
+++ b/TestDataMappingSheetNew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Downloads\testNGFramework\CARES---Selenium-Automation-master\src\main\java\Artifacts\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB51C93-D0A5-4E57-8323-D51B10CEE7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005449EF-1AE3-4CCC-AAEE-2D36A2E01ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>ScreenName</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>SD\CA.xlsx</t>
+  </si>
+  <si>
+    <t>InitialScreening</t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,6 +459,23 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{455CC7F2-4C5B-4059-8E82-9720902B7F64}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -464,6 +484,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E343A23AD63CB41B4E4C7703478C338" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7a98c6998acff090412b04a3311ec21a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d0b0af3-6c81-4d06-b483-03fba4523004" xmlns:ns3="ca3b047a-aabc-42bd-9935-6afcb58edb36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3fa3ae5ecf51694a738fe5aa86796b" ns2:_="" ns3:_="">
     <xsd:import namespace="4d0b0af3-6c81-4d06-b483-03fba4523004"/>
@@ -680,22 +715,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EE9325-298A-440D-A145-9EF7C68E0DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -712,21 +749,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C4FB384-E72C-4409-9CDC-2C37251E68FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36C1541B-3B17-40BB-AE95-44166A6ACA8A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>